--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401068.025310716</v>
+        <v>2397473.510134928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218068</v>
+        <v>2341983.383206077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791234</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8250097.069186024</v>
+        <v>8248740.735868154</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>155.885040924763</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.29240145028812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>80.41527818301677</v>
+        <v>24.38506177441024</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159213</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>31.68270470933202</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>177.8185470739039</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>33.3651247868974</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>9.094746703034563</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>118.1455703172715</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.6887840068726</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,13 +1376,13 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384553</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1427,7 +1427,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66256789014723</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>142.5954695403174</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380454</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1819,19 +1819,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386971</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>49.23385324951475</v>
+        <v>123.1868681289331</v>
       </c>
       <c r="W26" t="n">
         <v>273.2977702070789</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>105.3433468545905</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>53.14371979812703</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
@@ -3035,7 +3035,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
         <v>282.3655247697376</v>
@@ -3047,7 +3047,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
         <v>236.929075365811</v>
@@ -3095,7 +3095,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117996</v>
@@ -3253,7 +3253,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677956</v>
+        <v>289.0582874597569</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956114</v>
+        <v>281.8122356875726</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090116</v>
+        <v>143.6390380197451</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481336</v>
+        <v>291.1261788400948</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988347</v>
+        <v>305.2939832907959</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703895</v>
+        <v>301.5996171623508</v>
       </c>
       <c r="H41" t="n">
-        <v>47.41052983592077</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197251</v>
+        <v>29.52223494393378</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187263</v>
+        <v>57.41690871383391</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216515</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832601</v>
+        <v>145.7636914752213</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170295</v>
+        <v>231.2542304089907</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949081</v>
+        <v>259.8575338868694</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297864</v>
+        <v>278.1265682217477</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021176</v>
+        <v>285.0942911940788</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790096</v>
+        <v>75.92442770986223</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818336</v>
+        <v>61.07155596014464</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002309</v>
+        <v>46.64527117198436</v>
       </c>
       <c r="E43" t="n">
-        <v>41.6415122329022</v>
+        <v>46.57171322486347</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266947</v>
+        <v>48.32116464463074</v>
       </c>
       <c r="G43" t="n">
-        <v>54.2098015750616</v>
+        <v>59.14000256702288</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163365</v>
+        <v>46.49225473359492</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280558</v>
+        <v>24.33197031476685</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.3002676872615</v>
+        <v>15.23046867922277</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278881</v>
+        <v>93.35641218475008</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269609</v>
+        <v>125.9303505189222</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540307</v>
+        <v>175.152893045992</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408967</v>
+        <v>155.888040932858</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616468</v>
+        <v>173.0655872536081</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083594</v>
+        <v>124.3080082003207</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850358</v>
+        <v>113.449429776997</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677956</v>
+        <v>289.0582874597569</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956113</v>
+        <v>281.8122356875726</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090116</v>
+        <v>173.1612729636798</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481336</v>
+        <v>291.1261788400949</v>
       </c>
       <c r="F44" t="n">
-        <v>54.98195331435026</v>
+        <v>305.2939832907959</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703895</v>
+        <v>301.5996171623508</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426869</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187259</v>
+        <v>57.41690871383392</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296901</v>
+        <v>113.8340856216515</v>
       </c>
       <c r="U44" t="n">
-        <v>140.83349048326</v>
+        <v>145.7636914752213</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170294</v>
+        <v>231.2542304089908</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949081</v>
+        <v>259.8575338868694</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297863</v>
+        <v>278.1265682217477</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021176</v>
+        <v>285.0942911940789</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790091</v>
+        <v>75.92442770986224</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818332</v>
+        <v>61.07155596014465</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002305</v>
+        <v>46.64527117198438</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290216</v>
+        <v>46.57171322486349</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266943</v>
+        <v>48.32116464463076</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506156</v>
+        <v>59.14000256702289</v>
       </c>
       <c r="H46" t="n">
-        <v>41.5620537416336</v>
+        <v>46.49225473359493</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280554</v>
+        <v>24.33197031476686</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726145</v>
+        <v>15.23046867922278</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278877</v>
+        <v>93.3564121847501</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269609</v>
+        <v>125.9303505189222</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540307</v>
+        <v>175.152893045992</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408967</v>
+        <v>155.888040932858</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616468</v>
+        <v>173.0655872536081</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083594</v>
+        <v>124.3080082003207</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850357</v>
+        <v>113.4494297769971</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594.4711696686416</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="C2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="D2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="E2" t="n">
-        <v>201.2956681715721</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="F2" t="n">
-        <v>188.441633741954</v>
+        <v>776.703481205685</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3192822703612</v>
+        <v>363.5407256936881</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="J2" t="n">
-        <v>40.98216536282604</v>
+        <v>184.1074481690069</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9645213902879</v>
+        <v>208.0792072956631</v>
       </c>
       <c r="L2" t="n">
-        <v>399.9645213902879</v>
+        <v>696.3679386403751</v>
       </c>
       <c r="M2" t="n">
-        <v>907.1188177552601</v>
+        <v>1184.656669985087</v>
       </c>
       <c r="N2" t="n">
-        <v>1414.273114120232</v>
+        <v>1184.656669985087</v>
       </c>
       <c r="O2" t="n">
-        <v>1516.075215868831</v>
+        <v>1624.696270877416</v>
       </c>
       <c r="P2" t="n">
-        <v>1864.262708000353</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426824</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="S2" t="n">
-        <v>1844.601799367874</v>
+        <v>1768.37729423551</v>
       </c>
       <c r="T2" t="n">
-        <v>1844.601799367874</v>
+        <v>1544.876691794927</v>
       </c>
       <c r="U2" t="n">
-        <v>1844.601799367874</v>
+        <v>1289.123962229525</v>
       </c>
       <c r="V2" t="n">
-        <v>1844.601799367874</v>
+        <v>947.0171529330436</v>
       </c>
       <c r="W2" t="n">
-        <v>1473.602764336162</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="X2" t="n">
-        <v>1084.150159269218</v>
+        <v>789.5575156353032</v>
       </c>
       <c r="Y2" t="n">
-        <v>994.9659153800385</v>
+        <v>789.5575156353032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665.0693934058281</v>
+        <v>605.710545614294</v>
       </c>
       <c r="C3" t="n">
-        <v>514.4151629659203</v>
+        <v>455.0563151743862</v>
       </c>
       <c r="D3" t="n">
-        <v>384.3261955874007</v>
+        <v>324.9673477958665</v>
       </c>
       <c r="E3" t="n">
-        <v>384.3261955874007</v>
+        <v>188.5208569067543</v>
       </c>
       <c r="F3" t="n">
-        <v>259.8943894705325</v>
+        <v>64.08905078988606</v>
       </c>
       <c r="G3" t="n">
-        <v>178.6668357503135</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="H3" t="n">
-        <v>90.36941935091446</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8362936447799</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="L3" t="n">
-        <v>473.8362936447799</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="M3" t="n">
-        <v>473.8362936447799</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="N3" t="n">
-        <v>980.9905900097521</v>
+        <v>1124.427474722931</v>
       </c>
       <c r="O3" t="n">
-        <v>1488.144886374724</v>
+        <v>1332.897302737649</v>
       </c>
       <c r="P3" t="n">
-        <v>1893.766255091122</v>
+        <v>1738.518671454047</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039366</v>
+        <v>1948.966719907002</v>
       </c>
       <c r="S3" t="n">
-        <v>2025.191225039366</v>
+        <v>1814.036042806871</v>
       </c>
       <c r="T3" t="n">
-        <v>1848.207413238275</v>
+        <v>1637.052231005779</v>
       </c>
       <c r="U3" t="n">
-        <v>1638.144269916917</v>
+        <v>1426.989087684421</v>
       </c>
       <c r="V3" t="n">
-        <v>1415.604268287984</v>
+        <v>1204.449086055488</v>
       </c>
       <c r="W3" t="n">
-        <v>1185.48702242127</v>
+        <v>974.331840188775</v>
       </c>
       <c r="X3" t="n">
-        <v>996.1799447712822</v>
+        <v>785.0247625387867</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.8657278467895</v>
+        <v>605.710545614294</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.8064146755612</v>
+        <v>240.0410633680876</v>
       </c>
       <c r="C4" t="n">
-        <v>550.8064146755612</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="D4" t="n">
-        <v>395.173301578076</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="E4" t="n">
-        <v>239.6144894372785</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="F4" t="n">
-        <v>239.6144894372785</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="G4" t="n">
-        <v>71.36043553672408</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="H4" t="n">
-        <v>71.36043553672408</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="I4" t="n">
-        <v>71.36043553672408</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R4" t="n">
-        <v>818.5281985369554</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S4" t="n">
-        <v>818.5281985369554</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T4" t="n">
-        <v>582.8091467051895</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="U4" t="n">
-        <v>582.8091467051895</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="V4" t="n">
-        <v>582.8091467051895</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="W4" t="n">
-        <v>550.8064146755612</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="X4" t="n">
-        <v>550.8064146755612</v>
+        <v>295.8458648444433</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.8064146755612</v>
+        <v>295.8458648444433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1502.494990071393</v>
+        <v>499.1766114511851</v>
       </c>
       <c r="C5" t="n">
-        <v>1502.494990071393</v>
+        <v>499.1766114511851</v>
       </c>
       <c r="D5" t="n">
-        <v>1502.494990071393</v>
+        <v>499.1766114511851</v>
       </c>
       <c r="E5" t="n">
-        <v>1099.911465187937</v>
+        <v>499.1766114511851</v>
       </c>
       <c r="F5" t="n">
-        <v>683.017026717915</v>
+        <v>486.3225770215669</v>
       </c>
       <c r="G5" t="n">
-        <v>503.4023327038706</v>
+        <v>73.15982150957007</v>
       </c>
       <c r="H5" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="J5" t="n">
-        <v>40.98216536282604</v>
+        <v>184.1074481690069</v>
       </c>
       <c r="K5" t="n">
-        <v>40.98216536282604</v>
+        <v>543.0898041964687</v>
       </c>
       <c r="L5" t="n">
-        <v>246.5725823875071</v>
+        <v>951.5619793917551</v>
       </c>
       <c r="M5" t="n">
-        <v>753.7268787524793</v>
+        <v>1439.850710736467</v>
       </c>
       <c r="N5" t="n">
-        <v>1260.881175117451</v>
+        <v>1439.850710736467</v>
       </c>
       <c r="O5" t="n">
-        <v>1700.92077600978</v>
+        <v>1439.850710736467</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.108268141302</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R5" t="n">
-        <v>2011.115354426824</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="S5" t="n">
-        <v>1844.601799367874</v>
+        <v>1768.37729423551</v>
       </c>
       <c r="T5" t="n">
-        <v>1844.601799367874</v>
+        <v>1544.876691794927</v>
       </c>
       <c r="U5" t="n">
-        <v>1844.601799367874</v>
+        <v>1289.123962229525</v>
       </c>
       <c r="V5" t="n">
-        <v>1502.494990071393</v>
+        <v>1289.123962229525</v>
       </c>
       <c r="W5" t="n">
-        <v>1502.494990071393</v>
+        <v>1289.123962229525</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.494990071393</v>
+        <v>899.671357162582</v>
       </c>
       <c r="Y5" t="n">
-        <v>1502.494990071393</v>
+        <v>899.671357162582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>719.4457939556853</v>
+        <v>684.0314570400458</v>
       </c>
       <c r="C6" t="n">
-        <v>568.7915635157775</v>
+        <v>533.377226600138</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>403.2882592216183</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>283.9492993051825</v>
       </c>
       <c r="F6" t="n">
-        <v>298.7266536784491</v>
+        <v>159.5174931883143</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="H6" t="n">
-        <v>90.36941935091446</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="J6" t="n">
-        <v>154.0971475825534</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K6" t="n">
-        <v>154.0971475825534</v>
+        <v>472.3118035421326</v>
       </c>
       <c r="L6" t="n">
-        <v>637.6632334808667</v>
+        <v>955.8778894404459</v>
       </c>
       <c r="M6" t="n">
-        <v>1034.799675411357</v>
+        <v>955.8778894404459</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.95397177633</v>
+        <v>1444.166620785158</v>
       </c>
       <c r="O6" t="n">
-        <v>2049.108268141302</v>
+        <v>1567.26239429254</v>
       </c>
       <c r="P6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R6" t="n">
-        <v>2025.191225039366</v>
+        <v>1948.966719907002</v>
       </c>
       <c r="S6" t="n">
-        <v>1890.260547939235</v>
+        <v>1814.036042806871</v>
       </c>
       <c r="T6" t="n">
-        <v>1713.276736138144</v>
+        <v>1637.052231005779</v>
       </c>
       <c r="U6" t="n">
-        <v>1503.213592816785</v>
+        <v>1426.989087684421</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.673591187852</v>
+        <v>1204.449086055488</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.556345321139</v>
+        <v>1204.449086055488</v>
       </c>
       <c r="X6" t="n">
-        <v>1050.556345321139</v>
+        <v>1015.1420084055</v>
       </c>
       <c r="Y6" t="n">
-        <v>871.2421283966466</v>
+        <v>835.8277914810071</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="C7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="D7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="E7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="F7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="G7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="H7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017875</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="T7" t="n">
-        <v>942.4291879043784</v>
+        <v>724.7253613476727</v>
       </c>
       <c r="U7" t="n">
-        <v>824.372234827841</v>
+        <v>724.7253613476727</v>
       </c>
       <c r="V7" t="n">
-        <v>558.3928896486652</v>
+        <v>458.7460161684969</v>
       </c>
       <c r="W7" t="n">
-        <v>275.0624875798429</v>
+        <v>458.7460161684969</v>
       </c>
       <c r="X7" t="n">
-        <v>40.98216536282604</v>
+        <v>224.66569395148</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.98216536282604</v>
+        <v>224.66569395148</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1004.842378447763</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506939</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506939</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506939</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.689431236809</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.33712415916</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>854.2900019614187</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463906</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536172</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5051,7 +5051,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.823590280621</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.332180497207</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.273826752683</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2172.761902972929</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.211875180718</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082776</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443715</v>
+        <v>296.5093676443716</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
         <v>160.8107415311668</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.396746836251</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5218,31 +5218,31 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404581</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1693.293945816387</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1395.059125606506</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.558678110362</v>
+        <v>745.691394732105</v>
       </c>
       <c r="E14" t="n">
-        <v>796.9158345140945</v>
+        <v>745.691394732105</v>
       </c>
       <c r="F14" t="n">
-        <v>652.880006695592</v>
+        <v>423.737637549271</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707835</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774168</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764874</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2293.35993402035</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.848010240596</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1998.848010240596</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.196009291336</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>2009.716291882317</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979804</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443712</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,31 +5437,31 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5783,19 +5783,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5926,34 +5926,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924184</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
         <v>206.768900612944</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072671</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411552</v>
@@ -6148,19 +6148,19 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974522</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1834.146244299088</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.911424089207</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1245.410976593063</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>937.7681329967963</v>
+        <v>939.2926230994437</v>
       </c>
       <c r="F26" t="n">
-        <v>615.8143758139624</v>
+        <v>617.3388659166098</v>
       </c>
       <c r="G26" t="n">
-        <v>297.5923015891541</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H26" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J26" t="n">
-        <v>306.1510670812345</v>
+        <v>264.5650504944524</v>
       </c>
       <c r="K26" t="n">
-        <v>696.188770117136</v>
+        <v>716.5987682514875</v>
       </c>
       <c r="L26" t="n">
-        <v>1282.560423565238</v>
+        <v>1302.97042169959</v>
       </c>
       <c r="M26" t="n">
-        <v>1921.612685339392</v>
+        <v>1848.97132174417</v>
       </c>
       <c r="N26" t="n">
-        <v>2449.423968976854</v>
+        <v>2469.833967111206</v>
       </c>
       <c r="O26" t="n">
-        <v>2889.463569869183</v>
+        <v>2909.873568003534</v>
       </c>
       <c r="P26" t="n">
-        <v>3237.651062000705</v>
+        <v>3258.061060135056</v>
       </c>
       <c r="Q26" t="n">
-        <v>3422.496622141653</v>
+        <v>3442.906620276005</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141653</v>
+        <v>3498.721127274018</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369893</v>
+        <v>3427.148253502257</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.363827216498</v>
+        <v>3298.588332348862</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938287</v>
+        <v>3137.776284070649</v>
       </c>
       <c r="V26" t="n">
-        <v>3011.820614039787</v>
+        <v>3013.345104142434</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.762260295262</v>
+        <v>2737.28675039791</v>
       </c>
       <c r="X26" t="n">
-        <v>2441.250336515508</v>
+        <v>2442.774826618155</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.700308723297</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.815915582864</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429562</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644366</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303205</v>
+        <v>207.6590929329678</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>183.0894047652077</v>
       </c>
       <c r="K27" t="n">
-        <v>501.3040607247869</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231001</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.2787245562</v>
+        <v>1092.545526039269</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938179</v>
+        <v>500.9396617964651</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469954</v>
+        <v>425.6752251496427</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366985</v>
+        <v>364.9827933393457</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830893</v>
+        <v>304.3646624857366</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832506</v>
+        <v>241.9794089858979</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698845</v>
+        <v>168.6660363725318</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185668</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548037</v>
       </c>
       <c r="J28" t="n">
-        <v>131.727551574969</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171316</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205044</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856946</v>
+        <v>844.6603861883418</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617759</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613038</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.993529923928</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940994</v>
+        <v>719.3783790967467</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919435</v>
+        <v>1712.935786320658</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709554</v>
+        <v>1414.700966110777</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.80741221341</v>
+        <v>1124.200518614633</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171432</v>
+        <v>816.5576750183659</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343093</v>
+        <v>494.603917835532</v>
       </c>
       <c r="G29" t="n">
-        <v>340.9887372095009</v>
+        <v>176.3818436107233</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8463680631799</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J29" t="n">
-        <v>306.1510670812345</v>
+        <v>307.6755571838818</v>
       </c>
       <c r="K29" t="n">
-        <v>758.1847848382696</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1282.560423565238</v>
+        <v>1209.919059970017</v>
       </c>
       <c r="M29" t="n">
-        <v>1828.561323609819</v>
+        <v>1848.971321744171</v>
       </c>
       <c r="N29" t="n">
-        <v>2356.372607247281</v>
+        <v>2376.782605381633</v>
       </c>
       <c r="O29" t="n">
-        <v>2889.463569869183</v>
+        <v>2909.873568003535</v>
       </c>
       <c r="P29" t="n">
-        <v>3237.651062000705</v>
+        <v>3258.061060135057</v>
       </c>
       <c r="Q29" t="n">
-        <v>3422.496622141653</v>
+        <v>3442.906620276005</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141653</v>
+        <v>3498.721127274019</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369893</v>
+        <v>3427.148253502257</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216498</v>
+        <v>3298.588332348862</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938285</v>
+        <v>3137.776284070649</v>
       </c>
       <c r="V29" t="n">
-        <v>2814.385650928991</v>
+        <v>2890.610156061356</v>
       </c>
       <c r="W29" t="n">
-        <v>2538.327297184467</v>
+        <v>2614.551802316832</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.646772135854</v>
+        <v>2320.039878537077</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.096744343644</v>
+        <v>2018.489850744867</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.815915582864</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429562</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644366</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303205</v>
+        <v>207.6590929329678</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="K30" t="n">
-        <v>501.3040607247869</v>
+        <v>389.7135686077068</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231001</v>
+        <v>873.2796545060201</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.2787245562</v>
+        <v>1501.051304132701</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.415171693818</v>
+        <v>500.9396617964653</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469956</v>
+        <v>425.6752251496429</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366987</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830895</v>
+        <v>304.3646624857369</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832508</v>
+        <v>241.9794089858981</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698847</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H31" t="n">
-        <v>106.603676518567</v>
+        <v>108.1281666212144</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548038</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144841</v>
+        <v>308.1384445171309</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178571</v>
+        <v>565.3174461205037</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856944</v>
+        <v>844.6603861883411</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720405</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239278</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940993</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.682509097931</v>
+        <v>591.2069992005783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I32" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6716,31 +6716,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6762,10 +6762,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
         <v>199.803798091603</v>
@@ -6774,28 +6774,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.565146063491</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072657</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I34" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6920,22 +6920,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404057</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960398</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343038</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655131</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072211</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964837996</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7202,16 +7202,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655146</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974524</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.622946400958</v>
+        <v>1428.779014516736</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.944123476098</v>
+        <v>1144.120190589894</v>
       </c>
       <c r="D41" t="n">
-        <v>1026.999673264975</v>
+        <v>999.0302531962119</v>
       </c>
       <c r="E41" t="n">
-        <v>737.9128269537289</v>
+        <v>704.9634058829848</v>
       </c>
       <c r="F41" t="n">
-        <v>434.5150670559161</v>
+        <v>396.5856449831909</v>
       </c>
       <c r="G41" t="n">
-        <v>134.8489901161288</v>
+        <v>91.93956704142238</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944128</v>
+        <v>91.93956704142238</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3052.939508719036</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2910.683457725844</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.073327001572</v>
+        <v>2552.149399125274</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.570970542069</v>
+        <v>2289.667041663789</v>
       </c>
       <c r="X41" t="n">
-        <v>2148.615044047335</v>
+        <v>2008.731114167075</v>
       </c>
       <c r="Y41" t="n">
-        <v>1865.621013540145</v>
+        <v>1720.757082657904</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599528</v>
+        <v>398.0523929738205</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981515</v>
+        <v>336.363952610038</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728756</v>
+        <v>289.247517082781</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042876</v>
+        <v>242.2053825122119</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894699</v>
+        <v>193.3961252954131</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611248</v>
+        <v>133.658748965087</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482823</v>
+        <v>86.69687549680931</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>225.4185208852423</v>
+        <v>250.3113645006382</v>
       </c>
       <c r="L43" t="n">
-        <v>500.7842554276646</v>
+        <v>486.4314323386241</v>
       </c>
       <c r="M43" t="n">
-        <v>687.0758337659286</v>
+        <v>779.080206363469</v>
       </c>
       <c r="N43" t="n">
-        <v>981.5035624657603</v>
+        <v>962.2698403946781</v>
       </c>
       <c r="O43" t="n">
-        <v>1255.446424176091</v>
+        <v>1231.331803122967</v>
       </c>
       <c r="P43" t="n">
-        <v>1377.885148554429</v>
+        <v>1457.565164586126</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.30734492448</v>
+        <v>1460.987360956177</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129266</v>
+        <v>1445.603049158982</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884025</v>
+        <v>1351.30364291176</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624468</v>
+        <v>1224.101268650223</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385788</v>
+        <v>1047.179154462352</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316124</v>
+        <v>889.7164868534045</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523349994</v>
+        <v>714.9027623548104</v>
       </c>
       <c r="X43" t="n">
-        <v>544.519108690192</v>
+        <v>589.3391177080218</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790448</v>
+        <v>474.7437340948935</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1468.619022532584</v>
+        <v>1428.779014516736</v>
       </c>
       <c r="C44" t="n">
-        <v>1188.940199607724</v>
+        <v>1144.120190589895</v>
       </c>
       <c r="D44" t="n">
-        <v>916.9957493966017</v>
+        <v>969.2098138589051</v>
       </c>
       <c r="E44" t="n">
-        <v>627.9089030853556</v>
+        <v>675.142966545678</v>
       </c>
       <c r="F44" t="n">
-        <v>572.3715765052028</v>
+        <v>366.7652056458841</v>
       </c>
       <c r="G44" t="n">
-        <v>272.7054995654154</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7652,13 +7652,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717056</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850662</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.67953385747</v>
+        <v>2785.739530851527</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.069403133198</v>
+        <v>2552.149399125274</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.567046673695</v>
+        <v>2289.66704166379</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.611120178961</v>
+        <v>2008.731114167075</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.617089671772</v>
+        <v>1720.757082657904</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,19 +7731,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1286.571845448837</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1803.092128039818</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599526</v>
+        <v>398.0523929738206</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981512</v>
+        <v>336.3639526100381</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728754</v>
+        <v>289.2475170827811</v>
       </c>
       <c r="E46" t="n">
-        <v>222.2853785042874</v>
+        <v>242.205382512212</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894698</v>
+        <v>193.3961252954132</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611248</v>
+        <v>133.6587489650871</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482818</v>
+        <v>86.69687549680934</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>143.5834797753005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6566155538649</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>500.7842554276647</v>
+        <v>414.4390043744379</v>
       </c>
       <c r="M46" t="n">
-        <v>687.0758337659287</v>
+        <v>707.0877783992828</v>
       </c>
       <c r="N46" t="n">
-        <v>981.5035624657603</v>
+        <v>890.2774124304919</v>
       </c>
       <c r="O46" t="n">
-        <v>1255.446424176091</v>
+        <v>1124.974607436386</v>
       </c>
       <c r="P46" t="n">
-        <v>1377.885148554428</v>
+        <v>1351.207968899546</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924479</v>
+        <v>1460.987360956177</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129266</v>
+        <v>1445.603049158983</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884024</v>
+        <v>1351.30364291176</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624468</v>
+        <v>1224.101268650223</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385783</v>
+        <v>1047.179154462352</v>
       </c>
       <c r="V46" t="n">
-        <v>834.936475831612</v>
+        <v>889.7164868534046</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523349991</v>
+        <v>714.9027623548105</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901916</v>
+        <v>589.3391177080219</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790445</v>
+        <v>474.7437340948936</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>167.2723012869709</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>646.469110482726</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330528</v>
+        <v>642.9459923499617</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731096</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>252.3942432307622</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>597.6491798894921</v>
+        <v>578.593053606401</v>
       </c>
       <c r="O3" t="n">
-        <v>604.9646259242144</v>
+        <v>303.2631427421393</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>247.8992774490253</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>360.9152576342099</v>
+        <v>565.8463264934073</v>
       </c>
       <c r="M5" t="n">
-        <v>662.0021186330528</v>
+        <v>642.9459923499617</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731096</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>493.5350431912217</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>597.6491798894921</v>
+        <v>578.593053606401</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242144</v>
+        <v>217.0267240478607</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,22 +8535,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>507.6329599720908</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>668.5665922884425</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>224.834151932995</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069885</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,22 +11379,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364589</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>243.0318988390531</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.1130620038565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>176.1387500706882</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404353</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>195.4606134796856</v>
+        <v>121.5075986002673</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>121.5075986002673</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>238.4230847438302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>130.5161686812278</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>161.0699783067661</v>
+        <v>213.4107091346482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296902</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>100.9939337372931</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>245.3818289844844</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346482</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197247</v>
+        <v>29.5222349439338</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712137.4342646118</v>
+        <v>710756.6158049717</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712137.4342646118</v>
+        <v>710756.6158049717</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726621.5990890246</v>
+        <v>726621.5990890247</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709540.9692979768</v>
+        <v>714838.9632839384</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709540.9692979768</v>
+        <v>714838.9632839384</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>707280.6715482571</v>
+        <v>701982.6775622953</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>707280.671548257</v>
+        <v>701982.6775622955</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>613129.4055174133</v>
       </c>
       <c r="D2" t="n">
-        <v>613129.4055174133</v>
+        <v>613129.4055174132</v>
       </c>
       <c r="E2" t="n">
-        <v>576218.8171230101</v>
+        <v>576218.8171230095</v>
       </c>
       <c r="F2" t="n">
-        <v>576218.8171230102</v>
+        <v>576218.8171230099</v>
       </c>
       <c r="G2" t="n">
         <v>613129.4055174127</v>
@@ -26332,28 +26332,28 @@
         <v>613129.4055174132</v>
       </c>
       <c r="I2" t="n">
-        <v>613129.405517413</v>
+        <v>613129.4055174127</v>
       </c>
       <c r="J2" t="n">
-        <v>596997.6996036454</v>
+        <v>602001.3605903867</v>
       </c>
       <c r="K2" t="n">
-        <v>596997.6996036454</v>
+        <v>602001.3605903867</v>
       </c>
       <c r="L2" t="n">
-        <v>613129.4055174129</v>
+        <v>613129.4055174126</v>
       </c>
       <c r="M2" t="n">
-        <v>613129.405517413</v>
+        <v>613129.4055174126</v>
       </c>
       <c r="N2" t="n">
         <v>613129.4055174128</v>
       </c>
       <c r="O2" t="n">
-        <v>594862.9739511326</v>
+        <v>589859.3129643908</v>
       </c>
       <c r="P2" t="n">
-        <v>594862.9739511325</v>
+        <v>589859.312964391</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360794</v>
+        <v>165289.681327711</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984798</v>
+        <v>30501.12795716457</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
         <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989172</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316119</v>
+        <v>27755.29688959209</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246</v>
+        <v>242370.3115962889</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248246</v>
+        <v>242370.3115962889</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188938.3872119904</v>
+        <v>192375.5280079682</v>
       </c>
       <c r="K4" t="n">
-        <v>188938.3872119904</v>
+        <v>192375.5280079683</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>187091.679743347</v>
+        <v>183756.6055360514</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.6797433471</v>
+        <v>183756.6055360514</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574778</v>
+        <v>63615.43319773585</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574778</v>
+        <v>63615.43319773585</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551965</v>
@@ -26491,10 +26491,10 @@
         <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033444</v>
+        <v>61082.31358834638</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033444</v>
+        <v>61082.3135883464</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551965</v>
@@ -26503,13 +26503,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330599</v>
+        <v>56242.1967361128</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.673803306</v>
+        <v>56242.19673611281</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138064.2074809861</v>
+        <v>141853.9793956775</v>
       </c>
       <c r="C6" t="n">
-        <v>309740.0350170655</v>
+        <v>307143.6607233885</v>
       </c>
       <c r="D6" t="n">
-        <v>295940.3682387247</v>
+        <v>290020.963731408</v>
       </c>
       <c r="E6" t="n">
-        <v>215988.7471516104</v>
+        <v>215880.1865975087</v>
       </c>
       <c r="F6" t="n">
-        <v>346441.6782893228</v>
+        <v>346333.1177352213</v>
       </c>
       <c r="G6" t="n">
-        <v>326595.5103606185</v>
+        <v>326595.5103606183</v>
       </c>
       <c r="H6" t="n">
-        <v>355690.4662336333</v>
+        <v>355690.4662336332</v>
       </c>
       <c r="I6" t="n">
-        <v>355690.4662336331</v>
+        <v>355690.4662336327</v>
       </c>
       <c r="J6" t="n">
-        <v>147298.1132092783</v>
+        <v>147673.2913781268</v>
       </c>
       <c r="K6" t="n">
-        <v>348135.6112813206</v>
+        <v>348510.7894501689</v>
       </c>
       <c r="L6" t="n">
-        <v>297500.5544876043</v>
+        <v>297500.5544876039</v>
       </c>
       <c r="M6" t="n">
-        <v>309568.5449937414</v>
+        <v>309568.5449937409</v>
       </c>
       <c r="N6" t="n">
-        <v>355690.4662336329</v>
+        <v>355690.4662336328</v>
       </c>
       <c r="O6" t="n">
-        <v>319415.1627213185</v>
+        <v>322036.7723539491</v>
       </c>
       <c r="P6" t="n">
-        <v>351114.6204044794</v>
+        <v>349792.0692435413</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26710,7 +26710,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354134</v>
+        <v>874.6802818185046</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354134</v>
+        <v>874.6802818185047</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,19 +26920,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>72.73738968253589</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395149</v>
+        <v>34.69412111199011</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923396963</v>
+        <v>98.19118551706072</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923396963</v>
+        <v>98.19118551706072</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>211.4040037566324</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.2334005383167</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38.44394156583743</v>
+        <v>94.47415797444395</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>248.8143933388021</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.2125808829729</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>287.4770951422768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119.6933310016999</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>16.93645566294967</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27825,16 +27825,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
-        <v>165.708020294746</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.83701798173229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>127.3556497966625</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634530115</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529923</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29296,20 +29296,20 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>50.44530812135753</v>
+      </c>
+      <c r="K26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K26" t="n">
-        <v>31.36903738226226</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29509,46 +29509,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>31.36903738226226</v>
+        <v>50.44530812135838</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>130.3599693155844</v>
@@ -29928,22 +29928,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
-        <v>35.71049010668722</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668697</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30411,16 +30411,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="J43" t="n">
-        <v>112.3617117864873</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>107.431510794526</v>
       </c>
       <c r="L43" t="n">
-        <v>112.3617117864873</v>
+        <v>72.71962420624865</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.431510794526</v>
       </c>
       <c r="N43" t="n">
-        <v>112.3617117864873</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="P43" t="n">
-        <v>2.58844303208005</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="J46" t="n">
-        <v>112.3617117864873</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>112.3617117864873</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>107.431510794526</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.431510794526</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864873</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>112.3617117864873</v>
+        <v>72.71962420624882</v>
       </c>
       <c r="P46" t="n">
-        <v>2.588443032079596</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>107.431510794526</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864873</v>
+        <v>107.431510794526</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>24.21389810773356</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="M2" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="N2" t="n">
-        <v>512.2770670353254</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>102.8304058066658</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="O3" t="n">
-        <v>512.2770670353254</v>
+        <v>210.5755838532504</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.9111242931113</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>207.6670879037182</v>
+        <v>412.5981567629156</v>
       </c>
       <c r="M5" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="N5" t="n">
-        <v>512.2770670353254</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>401.1479211419098</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>512.2770670353254</v>
+        <v>493.2209407522344</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353254</v>
+        <v>124.3391651589718</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>414.9454010832019</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>583.1944794342759</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>137.7507871136803</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873221</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644682406</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>196.5561898474465</v>
       </c>
       <c r="K26" t="n">
-        <v>393.9774778140419</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576765</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>529.6723623504732</v>
+        <v>548.7486330895694</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36853,7 +36853,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,13 +37233,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N34" t="n">
-        <v>220.750524481646</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634527896</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729928</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432823</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>190.093168481336</v>
       </c>
       <c r="L43" t="n">
-        <v>278.1472066085073</v>
+        <v>238.5051190282686</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>295.604822247318</v>
       </c>
       <c r="N43" t="n">
-        <v>297.4017461614461</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>276.7099613235662</v>
+        <v>271.7797603316049</v>
       </c>
       <c r="P43" t="n">
-        <v>123.6754791700382</v>
+        <v>228.5185469324842</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.28722431432828</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>195.0233694732973</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>273.217005616546</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>295.604822247318</v>
       </c>
       <c r="N46" t="n">
-        <v>297.4017461614461</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>276.7099613235662</v>
+        <v>237.0678737433277</v>
       </c>
       <c r="P46" t="n">
-        <v>123.6754791700378</v>
+        <v>228.5185469324842</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>110.8882748046785</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
